--- a/biology/Médecine/Fluid-attenuated_inversion_recovery_(séquence_FLAIR)/Fluid-attenuated_inversion_recovery_(séquence_FLAIR).xlsx
+++ b/biology/Médecine/Fluid-attenuated_inversion_recovery_(séquence_FLAIR)/Fluid-attenuated_inversion_recovery_(séquence_FLAIR).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fluid-attenuated_inversion_recovery_(s%C3%A9quence_FLAIR)</t>
+          <t>Fluid-attenuated_inversion_recovery_(séquence_FLAIR)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La séquence Fluid-attenuated inversion recovery (FLAIR) est une séquence IRM en inversion récupération qui annule le signal des fluides. Cette séquence est généralement utilisée pour l'IRM cérébrale pour supprimer le signal du liquide cérébrospinal (LCS), ce qui permet de mieux observer certaines pathologies, notamment celles présentes à l'interface parenchyme-LCS[1],[2]. La séquence fut développée dans les années 1990 par l'équipe de recherche de Hammersmith (constituée de Graeme Bydder, Joseph Hajnal, et Ian Young[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La séquence Fluid-attenuated inversion recovery (FLAIR) est une séquence IRM en inversion récupération qui annule le signal des fluides. Cette séquence est généralement utilisée pour l'IRM cérébrale pour supprimer le signal du liquide cérébrospinal (LCS), ce qui permet de mieux observer certaines pathologies, notamment celles présentes à l'interface parenchyme-LCS,. La séquence fut développée dans les années 1990 par l'équipe de recherche de Hammersmith (constituée de Graeme Bydder, Joseph Hajnal, et Ian Young.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fluid-attenuated_inversion_recovery_(s%C3%A9quence_FLAIR)</t>
+          <t>Fluid-attenuated_inversion_recovery_(séquence_FLAIR)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En réglant le temps d'inversion (TI), le signal d'un tissu particulier peut être annulé. Le TI approprié diffère en fonction du tissu. On obtient le TI via la formule :
             TI
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fluid-attenuated_inversion_recovery_(s%C3%A9quence_FLAIR)</t>
+          <t>Fluid-attenuated_inversion_recovery_(séquence_FLAIR)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,9 +569,11 @@
           <t>Applications cliniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La séquence FLAIR est particulièrement utile dans l'évaluation et l'étude des troubles du système nerveux central (SNC), notamment [4]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La séquence FLAIR est particulièrement utile dans l'évaluation et l'étude des troubles du système nerveux central (SNC), notamment :
 L'accident vasculaire cérébral (AVC)
 Sclérose en plaques (SEP)
 Hémorragie sous-arachnoïdienne
